--- a/data/hotels.xlsx
+++ b/data/hotels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbhav\Project_Travel App\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2271eb4b80aae561/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6112131-CB3E-4DB8-B461-62192F69FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EBAF02-001D-4903-8F8F-AA7D89C87C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B5DD80-DECC-42EB-A8D3-4B97F6B9B6B6}"/>
   </bookViews>
@@ -36,42 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="133">
   <si>
-    <t xml:space="preserve">Hotel Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Location </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rating </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Price Per Night </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amenities </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Room Types </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Available Rooms </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check-in </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Check-out </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Address </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phone </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Website</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Grand Palace Delhi </t>
   </si>
   <si>
@@ -433,6 +397,42 @@
   </si>
   <si>
     <t xml:space="preserve"> www.crownvistablr.com</t>
+  </si>
+  <si>
+    <t>Hotel Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Price Per Night</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>Room Types</t>
+  </si>
+  <si>
+    <t>Available Rooms</t>
+  </si>
+  <si>
+    <t>Check-in</t>
+  </si>
+  <si>
+    <t>Check-out</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -787,55 +787,55 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4.5</v>
@@ -844,36 +844,36 @@
         <v>7500</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -882,36 +882,36 @@
         <v>4200</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>3.8</v>
@@ -920,36 +920,36 @@
         <v>3200</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4.2</v>
@@ -958,36 +958,36 @@
         <v>5400</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>4.5999999999999996</v>
@@ -996,36 +996,36 @@
         <v>8900</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>3.9</v>
@@ -1034,36 +1034,36 @@
         <v>3600</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>4.3</v>
@@ -1072,36 +1072,36 @@
         <v>6000</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>4.7</v>
@@ -1110,36 +1110,36 @@
         <v>9500</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>4.5999999999999996</v>
@@ -1148,36 +1148,36 @@
         <v>8700</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>4.2</v>
@@ -1186,36 +1186,36 @@
         <v>5400</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>4.0999999999999996</v>
@@ -1224,36 +1224,36 @@
         <v>4600</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>4.4000000000000004</v>
@@ -1262,36 +1262,36 @@
         <v>6900</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>3.7</v>
@@ -1300,36 +1300,36 @@
         <v>3200</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>4.5</v>
@@ -1338,36 +1338,36 @@
         <v>8100</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1376,36 +1376,36 @@
         <v>4800</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>4.7</v>
@@ -1414,36 +1414,36 @@
         <v>9200</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>4.5</v>
@@ -1452,36 +1452,36 @@
         <v>7400</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C19">
         <v>4.0999999999999996</v>
@@ -1490,36 +1490,36 @@
         <v>4900</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1528,36 +1528,36 @@
         <v>4500</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>3.8</v>
@@ -1566,36 +1566,36 @@
         <v>3800</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C22">
         <v>4.5999999999999996</v>
@@ -1604,36 +1604,36 @@
         <v>8800</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>4.3</v>
@@ -1642,36 +1642,36 @@
         <v>6200</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G23">
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>3.9</v>
@@ -1680,36 +1680,36 @@
         <v>4200</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>4.7</v>
@@ -1718,28 +1718,28 @@
         <v>9400</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
